--- a/Prises.xlsx
+++ b/Prises.xlsx
@@ -496,37 +496,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET2</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Caerleon</t>
+          <t>Bridgewatch</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2072</v>
+        <v>4640</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
+          <t>2023-04-11T11:40:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2090</v>
+        <v>4929</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2023-04-11T11:40:00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>982</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2023-04-11T11:40:00</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1354</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2023-04-11T11:40:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -534,49 +546,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET2</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fort Sterling</t>
+          <t>Caerleon</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1092</v>
+        <v>4486</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-04-10T13:15:00</t>
+          <t>2023-04-11T17:35:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1200</v>
+        <v>4486</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-04-10T13:15:00</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>800</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2023-04-10T09:10:00</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>906</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2023-04-10T09:10:00</t>
-        </is>
-      </c>
+          <t>2023-04-11T17:35:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -584,49 +584,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET2</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thetford</t>
+          <t>Fort Sterling</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>984</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-04-10T14:00:00</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1098</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2023-04-10T14:00:00</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2023-04-10T01:15:00</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1001</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2023-04-10T01:15:00</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -634,37 +610,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET3</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Caerleon</t>
+          <t>Lymhurst</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1985</v>
+        <v>2995</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-04-10T13:45:00</t>
+          <t>2023-04-11T16:05:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2177</v>
+        <v>3515</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-04-10T13:45:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>2023-04-11T16:05:00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>950</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:05:00</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1651</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:05:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -672,47 +660,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET3</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fort Sterling</t>
+          <t>Martlock</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1099</v>
+        <v>4102</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-04-10T12:05:00</t>
+          <t>2023-04-10T21:40:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1109</v>
+        <v>4500</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-04-10T12:05:00</t>
+          <t>2023-04-10T21:40:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2023-04-09T15:40:00</t>
+          <t>2023-04-10T21:35:00</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>1211</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-04-09T15:40:00</t>
+          <t>2023-04-10T21:35:00</t>
         </is>
       </c>
     </row>
@@ -722,7 +710,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T4_ARMOR_CLOTH_SET3</t>
+          <t>T4_ARMOR_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,14 +721,38 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023-04-10T23:00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3986</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-04-10T23:00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>608</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2023-04-10T23:00:00</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1127</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2023-04-10T23:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -748,37 +760,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET2</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Caerleon</t>
+          <t>Bridgewatch</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1185</v>
+        <v>3888</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
+          <t>2023-04-11T16:30:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1379</v>
+        <v>3957</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>2023-04-11T16:30:00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:45:00</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1438</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:45:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -786,47 +810,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET2</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fort Sterling</t>
+          <t>Caerleon</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>739</v>
+        <v>2300</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-04-09T21:35:00</t>
+          <t>2023-04-11T13:30:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>795</v>
+        <v>2520</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-04-09T21:35:00</t>
+          <t>2023-04-11T13:30:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>351</v>
+        <v>519</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2023-04-10T01:05:00</t>
+          <t>2023-04-11T10:50:00</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>520</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-04-10T01:05:00</t>
+          <t>2023-04-11T10:50:00</t>
         </is>
       </c>
     </row>
@@ -836,47 +860,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET2</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thetford</t>
+          <t>Fort Sterling</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>627</v>
+        <v>2596</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-04-10T14:00:00</t>
+          <t>2023-04-10T22:00:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>661</v>
+        <v>2650</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023-04-10T14:00:00</t>
+          <t>2023-04-10T22:00:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>780</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2023-04-09T19:55:00</t>
+          <t>2023-04-11T16:45:00</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>610</v>
+        <v>1020</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-04-09T19:55:00</t>
+          <t>2023-04-11T16:45:00</t>
         </is>
       </c>
     </row>
@@ -886,37 +910,49 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Caerleon</t>
+          <t>Lymhurst</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1306</v>
+        <v>2434</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
+          <t>2023-04-11T16:05:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1306</v>
+        <v>2473</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-04-10T13:50:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>2023-04-11T16:05:00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1502</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2023-04-11T08:05:00</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1512</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2023-04-11T08:05:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -924,49 +960,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fort Sterling</t>
+          <t>Martlock</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>865</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2023-04-10T11:15:00</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>879</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2023-04-10T11:15:00</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>514</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2023-04-10T03:55:00</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>514</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2023-04-10T03:55:00</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -974,7 +986,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3</t>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -986,19 +998,19 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>685</v>
+        <v>2177</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-04-09T23:55:00</t>
+          <t>2023-04-11T14:30:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>689</v>
+        <v>2210</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-04-09T23:55:00</t>
+          <t>2023-04-11T14:30:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>

--- a/Prises.xlsx
+++ b/Prises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,38 +505,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4640</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-04-11T11:40:00</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4929</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2023-04-11T11:40:00</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>982</v>
+        <v>1375</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2023-04-11T11:40:00</t>
+          <t>2023-04-12T00:30:00</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-04-11T11:40:00</t>
+          <t>2023-04-12T00:30:00</t>
         </is>
       </c>
     </row>
@@ -555,28 +543,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4486</v>
+        <v>4561</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023-04-11T17:35:00</t>
+          <t>2023-04-12T03:55:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4486</v>
+        <v>4561</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-04-11T17:35:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2023-04-12T03:55:00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1723</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2023-04-12T05:35:00</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3700</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2023-04-12T05:35:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -593,12 +593,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2521</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-04-12T09:30:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2555</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-04-12T09:30:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -619,38 +631,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
+          <t>2023-04-12T13:45:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3515</v>
+        <v>3720</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
+          <t>2023-04-12T13:45:00</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
+          <t>2023-04-12T13:45:00</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1651</v>
+        <v>1302</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
+          <t>2023-04-12T13:45:00</t>
         </is>
       </c>
     </row>
@@ -669,40 +681,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>4102</v>
+        <v>4674</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023-04-10T21:40:00</t>
+          <t>2023-04-11T21:10:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4500</v>
+        <v>4680</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-04-10T21:40:00</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>500</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2023-04-10T21:35:00</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2023-04-10T21:35:00</t>
-        </is>
-      </c>
+          <t>2023-04-11T21:10:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -719,40 +719,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>3499</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023-04-10T23:00:00</t>
+          <t>2023-04-12T04:55:00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3986</v>
+        <v>3499</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-04-10T23:00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>608</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2023-04-10T23:00:00</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>1127</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2023-04-10T23:00:00</t>
-        </is>
-      </c>
+          <t>2023-04-12T04:55:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -760,7 +748,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -769,40 +757,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3888</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:30:00</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3957</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:30:00</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:45:00</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1438</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:45:00</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -810,7 +774,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -819,40 +783,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2300</v>
+        <v>2560</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023-04-11T13:30:00</t>
+          <t>2023-04-11T23:30:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2520</v>
+        <v>3095</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-04-11T13:30:00</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>519</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2023-04-11T10:50:00</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>520</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2023-04-11T10:50:00</t>
-        </is>
-      </c>
+          <t>2023-04-11T23:30:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -860,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -869,40 +821,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2596</v>
+        <v>1498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-04-10T22:00:00</t>
+          <t>2023-04-12T11:25:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2650</v>
+        <v>1530</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023-04-10T22:00:00</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>780</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:45:00</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2023-04-11T16:45:00</t>
-        </is>
-      </c>
+          <t>2023-04-12T11:25:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -910,7 +850,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -919,40 +859,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2434</v>
+        <v>1974</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
+          <t>2023-04-12T13:10:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2473</v>
+        <v>1984</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-04-11T16:05:00</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1502</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2023-04-11T08:05:00</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>1512</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2023-04-11T08:05:00</t>
-        </is>
-      </c>
+          <t>2023-04-12T13:10:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -960,7 +888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -969,12 +897,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023-04-11T22:35:00</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2863</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-04-11T22:35:00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -986,7 +926,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T4_HEAD_CLOTH_SET3@1</t>
+          <t>T4_HEAD_CLOTH_SET2@1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -995,22 +935,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2177</v>
+        <v>3390</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023-04-11T14:30:00</t>
+          <t>2023-04-12T10:45:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2210</v>
+        <v>3998</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-04-11T14:30:00</t>
+          <t>2023-04-12T10:45:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1018,6 +958,522 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bridgewatch</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3955</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2023-04-11T20:15:00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3966</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-04-11T20:15:00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1050</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:45:00</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1565</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2023-04-11T16:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Caerleon</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2520</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2023-04-12T04:35:00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2545</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-04-12T04:35:00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>512</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2023-04-12T04:35:00</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>666</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2023-04-12T04:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fort Sterling</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2023-04-12T09:30:00</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2611</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-04-12T09:30:00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>783</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2023-04-11T20:45:00</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1027</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2023-04-11T20:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Lymhurst</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2438</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023-04-12T00:25:00</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2453</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-04-12T00:25:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Martlock</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2023-04-12T05:10:00</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1885</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-04-12T05:10:00</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>505</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-04-11T22:35:00</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>535</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2023-04-11T22:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>T4_HEAD_CLOTH_SET3@1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Thetford</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2627</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2023-04-12T14:00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2627</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-04-12T14:00:00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>351</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2023-04-12T14:00:00</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>558</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2023-04-12T14:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bridgewatch</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1392</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2023-04-12T07:00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-04-12T07:00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Caerleon</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2085</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2023-04-11T23:30:00</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2297</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-04-11T23:30:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fort Sterling</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1194</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2023-04-12T12:05:00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1557</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-04-12T12:05:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Lymhurst</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2023-04-12T13:10:00</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1576</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-04-12T13:10:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Martlock</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1288</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2023-04-11T23:25:00</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-04-11T23:25:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>T4_SHOES_CLOTH_SET1@1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thetford</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1095</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2023-04-12T13:25:00</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1139</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-04-12T13:25:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
